--- a/teaching/traditional_assets/database/data/qatar/qatar_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.243</v>
+        <v>-0.10125</v>
       </c>
       <c r="E2">
-        <v>-0.494</v>
+        <v>-0.112</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002158759557495753</v>
+        <v>0.001809478037358186</v>
       </c>
       <c r="J2">
-        <v>0.002158759557495753</v>
+        <v>0.001809478037358186</v>
       </c>
       <c r="K2">
-        <v>-2.831</v>
+        <v>-0.09000000000000008</v>
       </c>
       <c r="L2">
-        <v>-0.2665725047080979</v>
+        <v>-0.006122448979591842</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>58.3</v>
+        <v>47.2</v>
       </c>
       <c r="V2">
-        <v>0.7542043984476066</v>
+        <v>0.214838416021848</v>
       </c>
       <c r="W2">
-        <v>-0.02339811194508801</v>
+        <v>0.005828877005347594</v>
       </c>
       <c r="X2">
-        <v>0.04452032776243649</v>
+        <v>0.03215313721310308</v>
       </c>
       <c r="Y2">
-        <v>-0.06791843970752451</v>
+        <v>-0.02632426020775548</v>
       </c>
       <c r="Z2">
-        <v>0.24958654961334</v>
+        <v>0.416053396362805</v>
       </c>
       <c r="AA2">
-        <v>0.0003044595123671894</v>
+        <v>0.0004231249093625263</v>
       </c>
       <c r="AB2">
-        <v>0.04451262518401312</v>
+        <v>0.03198870164868391</v>
       </c>
       <c r="AC2">
-        <v>-0.04420816567164593</v>
+        <v>-0.03156557673932138</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AE2">
-        <v>0.05036986749697552</v>
+        <v>0.0320033642541733</v>
       </c>
       <c r="AF2">
-        <v>0.05036986749697552</v>
+        <v>5.812003364254173</v>
       </c>
       <c r="AG2">
-        <v>-58.24963013250302</v>
+        <v>-41.38799663574583</v>
       </c>
       <c r="AH2">
-        <v>0.0006511910361031278</v>
+        <v>0.02577247897029428</v>
       </c>
       <c r="AI2">
-        <v>0.0005378501715288716</v>
+        <v>0.05719799995891788</v>
       </c>
       <c r="AJ2">
-        <v>-3.057664000103552</v>
+        <v>-0.2321099861751808</v>
       </c>
       <c r="AK2">
-        <v>-1.647779934151718</v>
+        <v>-0.7606409262066534</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>175.1515151515152</v>
       </c>
       <c r="AP2">
-        <v>-1765.140307045546</v>
+        <v>-1254.181716234722</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.264</v>
+        <v>-0.122</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002894700315732942</v>
+        <v>0.002582458946520907</v>
       </c>
       <c r="J3">
-        <v>0.002894700315732942</v>
+        <v>0.002582458946520907</v>
       </c>
       <c r="K3">
-        <v>-2.96</v>
+        <v>-1.59</v>
       </c>
       <c r="L3">
-        <v>-0.3737373737373738</v>
+        <v>-0.1543689320388349</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,55 +758,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>24.7</v>
+        <v>27.6</v>
       </c>
       <c r="V3">
-        <v>0.5178197064989517</v>
+        <v>0.1970021413276231</v>
       </c>
       <c r="W3">
-        <v>-0.0502546689303905</v>
+        <v>-0.02834224598930481</v>
       </c>
       <c r="X3">
-        <v>0.04453235394920008</v>
+        <v>0.03143236596107401</v>
       </c>
       <c r="Y3">
-        <v>-0.09478702287959057</v>
+        <v>-0.05977461195037882</v>
       </c>
       <c r="Z3">
-        <v>0.210356499228902</v>
+        <v>0.3276914894872276</v>
       </c>
       <c r="AA3">
-        <v>0.0006089190247343788</v>
+        <v>0.0008462498187250527</v>
       </c>
       <c r="AB3">
-        <v>0.04451694879235334</v>
+        <v>0.03143158834223347</v>
       </c>
       <c r="AC3">
-        <v>-0.04390802976761896</v>
+        <v>-0.03058533852350842</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.05036986749697552</v>
+        <v>0.0320033642541733</v>
       </c>
       <c r="AF3">
-        <v>0.05036986749697552</v>
+        <v>0.0320033642541733</v>
       </c>
       <c r="AG3">
-        <v>-24.64963013250302</v>
+        <v>-27.56799663574583</v>
       </c>
       <c r="AH3">
-        <v>0.001054858164172286</v>
+        <v>0.0002283801236394579</v>
       </c>
       <c r="AI3">
-        <v>0.0008970531737517986</v>
+        <v>0.0005621331125380214</v>
       </c>
       <c r="AJ3">
-        <v>-1.069381110767387</v>
+        <v>-0.2449791686948925</v>
       </c>
       <c r="AK3">
-        <v>-0.7837628058542384</v>
+        <v>-0.9398606802746358</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-746.958488863728</v>
+        <v>-835.3938374468432</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.222</v>
+        <v>-0.0805</v>
       </c>
       <c r="E4">
-        <v>-0.494</v>
+        <v>-0.112</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.129</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>0.04777777777777777</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -883,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>33.6</v>
+        <v>19.6</v>
       </c>
       <c r="V4">
-        <v>1.135135135135135</v>
+        <v>0.2462311557788945</v>
       </c>
       <c r="W4">
-        <v>0.003458445040214478</v>
+        <v>0.04</v>
       </c>
       <c r="X4">
-        <v>0.04450830157567291</v>
+        <v>0.03287390846513215</v>
       </c>
       <c r="Y4">
-        <v>-0.04104985653545844</v>
+        <v>0.007126091534867852</v>
       </c>
       <c r="Z4">
-        <v>0.5510204081632655</v>
+        <v>1.128205128205129</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04450830157567291</v>
+        <v>0.03254581495513435</v>
       </c>
       <c r="AC4">
-        <v>-0.04450830157567291</v>
+        <v>-0.03254581495513435</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AG4">
-        <v>-33.6</v>
+        <v>-13.82</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.06769735301007263</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.1293643688451209</v>
       </c>
       <c r="AJ4">
-        <v>8.4</v>
+        <v>-0.2100942535725144</v>
       </c>
       <c r="AK4">
-        <v>-8.615384615384619</v>
+        <v>-0.55103668261563</v>
       </c>
       <c r="AL4">
         <v>0</v>
